--- a/2006/robbery-2006.xlsx
+++ b/2006/robbery-2006.xlsx
@@ -4,11 +4,12 @@
   <workbookPr/>
   <sheets>
     <sheet sheetId="1" name="type-of-victim" state="visible" r:id="rId3"/>
-    <sheet sheetId="2" name="resident-status-of-victim" state="visible" r:id="rId4"/>
-    <sheet sheetId="3" name="how-suspect-left-the-scene" state="visible" r:id="rId5"/>
-    <sheet sheetId="4" name="day-of-week-time-of-day" state="visible" r:id="rId6"/>
-    <sheet sheetId="5" name="victim-by-age-gender-and-race" state="visible" r:id="rId7"/>
-    <sheet sheetId="6" name="offender-age-gender-and-race" state="visible" r:id="rId8"/>
+    <sheet sheetId="2" name="monthly-time-chart" state="visible" r:id="rId4"/>
+    <sheet sheetId="3" name="resident-status-of-victim" state="visible" r:id="rId5"/>
+    <sheet sheetId="4" name="how-suspect-left-the-scene" state="visible" r:id="rId6"/>
+    <sheet sheetId="5" name="day-of-week-time-of-day" state="visible" r:id="rId7"/>
+    <sheet sheetId="6" name="victim-by-age-gender-and-race" state="visible" r:id="rId8"/>
+    <sheet sheetId="7" name="offender-age-gender-and-race" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -46,6 +47,48 @@
   </si>
   <si>
     <t>Unknown</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>Number of Robberies</t>
   </si>
   <si>
     <t>Resident Status of Victim</t>
@@ -348,6 +391,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
@@ -442,48 +489,102 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" customWidth="1" max="1" width="40.29"/>
+    <col min="1" customWidth="1" max="1" width="30.57"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c t="s" s="2" r="A1">
+      <c t="s" s="1" r="A1">
         <v>10</v>
       </c>
-      <c t="s" s="2" r="B1">
+      <c t="s" s="1" r="B1">
         <v>11</v>
       </c>
+      <c t="s" s="1" r="C1">
+        <v>12</v>
+      </c>
+      <c t="s" s="1" r="D1">
+        <v>13</v>
+      </c>
+      <c t="s" s="1" r="E1">
+        <v>14</v>
+      </c>
+      <c t="s" s="1" r="F1">
+        <v>15</v>
+      </c>
+      <c t="s" s="1" r="G1">
+        <v>16</v>
+      </c>
+      <c t="s" s="1" r="H1">
+        <v>17</v>
+      </c>
+      <c t="s" s="1" r="I1">
+        <v>18</v>
+      </c>
+      <c t="s" s="1" r="J1">
+        <v>19</v>
+      </c>
+      <c t="s" s="1" r="K1">
+        <v>20</v>
+      </c>
+      <c t="s" s="1" r="L1">
+        <v>21</v>
+      </c>
+      <c t="s" s="1" r="M1">
+        <v>22</v>
+      </c>
+      <c s="1" r="N1"/>
+      <c s="1" r="O1"/>
+      <c s="1" r="P1"/>
+      <c s="1" r="Q1"/>
+      <c s="1" r="R1"/>
+      <c s="1" r="S1"/>
+      <c s="1" r="T1"/>
+      <c s="1" r="U1"/>
+      <c s="1" r="V1"/>
+      <c s="1" r="W1"/>
+      <c s="1" r="X1"/>
+      <c s="1" r="Y1"/>
+      <c s="1" r="Z1"/>
     </row>
     <row r="2">
       <c t="s" s="2" r="A2">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c s="2" r="B2">
-        <v>6127.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c t="s" s="2" r="A3">
-        <v>13</v>
-      </c>
-      <c s="2" r="B3">
-        <v>1489.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c t="s" s="2" r="A4">
-        <v>14</v>
-      </c>
-      <c s="2" r="B4">
-        <v>1238.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c t="s" s="2" r="A5">
-        <v>15</v>
-      </c>
-      <c t="str" s="2" r="B5">
-        <f>sum(B2:B4)</f>
-        <v>8854</v>
+        <v>763.0</v>
+      </c>
+      <c s="2" r="C2">
+        <v>476.0</v>
+      </c>
+      <c s="2" r="D2">
+        <v>562.0</v>
+      </c>
+      <c s="2" r="E2">
+        <v>521.0</v>
+      </c>
+      <c s="2" r="F2">
+        <v>626.0</v>
+      </c>
+      <c s="2" r="G2">
+        <v>586.0</v>
+      </c>
+      <c s="2" r="H2">
+        <v>670.0</v>
+      </c>
+      <c s="2" r="I2">
+        <v>623.0</v>
+      </c>
+      <c s="2" r="J2">
+        <v>675.0</v>
+      </c>
+      <c s="2" r="K2">
+        <v>800.0</v>
+      </c>
+      <c s="2" r="L2">
+        <v>767.0</v>
+      </c>
+      <c s="2" r="M2">
+        <v>692.0</v>
       </c>
     </row>
   </sheetData>
@@ -498,96 +599,48 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" customWidth="1" max="1" width="40.43"/>
+    <col min="1" customWidth="1" max="1" width="40.29"/>
   </cols>
   <sheetData>
     <row r="1">
       <c t="s" s="2" r="A1">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c t="s" s="2" r="B1">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c t="s" s="2" r="A2">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c s="2" r="B2">
-        <v>1004.0</v>
+        <v>6127.0</v>
       </c>
     </row>
     <row r="3">
       <c t="s" s="2" r="A3">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c s="2" r="B3">
-        <v>56.0</v>
+        <v>1489.0</v>
       </c>
     </row>
     <row r="4">
       <c t="s" s="2" r="A4">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c s="2" r="B4">
-        <v>37.0</v>
+        <v>1238.0</v>
       </c>
     </row>
     <row r="5">
       <c t="s" s="2" r="A5">
-        <v>21</v>
-      </c>
-      <c s="2" r="B5">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c t="s" s="2" r="A6">
-        <v>22</v>
-      </c>
-      <c s="2" r="B6">
-        <v>157.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c t="s" s="2" r="A7">
-        <v>23</v>
-      </c>
-      <c s="2" r="B7">
-        <v>2777.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c t="s" s="2" r="A8">
-        <v>24</v>
-      </c>
-      <c s="2" r="B8">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c t="s" s="2" r="A9">
-        <v>25</v>
-      </c>
-      <c s="2" r="B9">
-        <v>33.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c t="s" s="2" r="A10">
-        <v>26</v>
-      </c>
-      <c s="2" r="B10">
-        <v>387.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c t="s" s="2" r="A11">
-        <v>27</v>
-      </c>
-      <c t="str" s="2" r="B11">
-        <f>sum(B2:B10)</f>
-        <v>4463</v>
+        <v>29</v>
+      </c>
+      <c t="str" s="2" r="B5">
+        <f>sum(B2:B4)</f>
+        <v>8854</v>
       </c>
     </row>
   </sheetData>
@@ -601,426 +654,97 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" customWidth="1" max="1" width="40.43"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c t="s" s="1" r="A1">
-        <v>28</v>
-      </c>
-      <c t="s" s="1" r="B1">
-        <v>29</v>
-      </c>
-      <c t="s" s="1" r="C1">
+      <c t="s" s="2" r="A1">
         <v>30</v>
       </c>
-      <c t="s" s="1" r="D1">
+      <c t="s" s="2" r="B1">
         <v>31</v>
       </c>
-      <c t="s" s="1" r="E1">
-        <v>32</v>
-      </c>
-      <c t="s" s="1" r="F1">
-        <v>33</v>
-      </c>
-      <c t="s" s="1" r="G1">
-        <v>34</v>
-      </c>
-      <c t="s" s="1" r="H1">
-        <v>35</v>
-      </c>
-      <c t="s" s="1" r="I1">
-        <v>36</v>
-      </c>
-      <c t="s" s="1" r="J1">
-        <v>37</v>
-      </c>
-      <c t="s" s="1" r="K1">
-        <v>38</v>
-      </c>
-      <c t="s" s="1" r="L1">
-        <v>39</v>
-      </c>
-      <c t="s" s="1" r="M1">
-        <v>40</v>
-      </c>
-      <c t="s" s="1" r="N1">
-        <v>41</v>
-      </c>
-      <c s="1" r="O1"/>
-      <c s="1" r="P1"/>
-      <c s="1" r="Q1"/>
-      <c s="1" r="R1"/>
-      <c s="1" r="S1"/>
-      <c s="1" r="T1"/>
-      <c s="1" r="U1"/>
-      <c s="1" r="V1"/>
-      <c s="1" r="W1"/>
-      <c s="1" r="X1"/>
-      <c s="1" r="Y1"/>
-      <c s="1" r="Z1"/>
     </row>
     <row r="2">
       <c t="s" s="2" r="A2">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c s="2" r="B2">
-        <v>117.0</v>
-      </c>
-      <c s="2" r="C2">
-        <v>68.0</v>
-      </c>
-      <c s="2" r="D2">
-        <v>44.0</v>
-      </c>
-      <c s="2" r="E2">
-        <v>17.0</v>
-      </c>
-      <c s="2" r="F2">
-        <v>40.0</v>
-      </c>
-      <c s="2" r="G2">
-        <v>50.0</v>
-      </c>
-      <c s="2" r="H2">
-        <v>58.0</v>
-      </c>
-      <c s="2" r="I2">
-        <v>87.0</v>
-      </c>
-      <c s="2" r="J2">
-        <v>66.0</v>
-      </c>
-      <c s="2" r="K2">
-        <v>110.0</v>
-      </c>
-      <c s="2" r="L2">
-        <v>180.0</v>
-      </c>
-      <c s="2" r="M2">
-        <v>197.0</v>
-      </c>
-      <c s="2" r="N2">
-        <v>58.0</v>
+        <v>1004.0</v>
       </c>
     </row>
     <row r="3">
       <c t="s" s="2" r="A3">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c s="2" r="B3">
-        <v>107.0</v>
-      </c>
-      <c s="2" r="C3">
-        <v>54.0</v>
-      </c>
-      <c s="2" r="D3">
-        <v>29.0</v>
-      </c>
-      <c s="2" r="E3">
-        <v>24.0</v>
-      </c>
-      <c s="2" r="F3">
-        <v>30.0</v>
-      </c>
-      <c s="2" r="G3">
-        <v>57.0</v>
-      </c>
-      <c s="2" r="H3">
-        <v>43.0</v>
-      </c>
-      <c s="2" r="I3">
-        <v>77.0</v>
-      </c>
-      <c s="2" r="J3">
-        <v>71.0</v>
-      </c>
-      <c s="2" r="K3">
-        <v>109.0</v>
-      </c>
-      <c s="2" r="L3">
-        <v>209.0</v>
-      </c>
-      <c s="2" r="M3">
-        <v>170.0</v>
-      </c>
-      <c s="2" r="N3">
-        <v>44.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="4">
       <c t="s" s="2" r="A4">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c s="2" r="B4">
-        <v>116.0</v>
-      </c>
-      <c s="2" r="C4">
-        <v>70.0</v>
-      </c>
-      <c s="2" r="D4">
-        <v>31.0</v>
-      </c>
-      <c s="2" r="E4">
-        <v>23.0</v>
-      </c>
-      <c s="2" r="F4">
-        <v>35.0</v>
-      </c>
-      <c s="2" r="G4">
-        <v>53.0</v>
-      </c>
-      <c s="2" r="H4">
-        <v>53.0</v>
-      </c>
-      <c s="2" r="I4">
-        <v>66.0</v>
-      </c>
-      <c s="2" r="J4">
-        <v>95.0</v>
-      </c>
-      <c s="2" r="K4">
-        <v>114.0</v>
-      </c>
-      <c s="2" r="L4">
-        <v>164.0</v>
-      </c>
-      <c s="2" r="M4">
-        <v>202.0</v>
-      </c>
-      <c s="2" r="N4">
-        <v>43.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="5">
       <c t="s" s="2" r="A5">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c s="2" r="B5">
-        <v>128.0</v>
-      </c>
-      <c s="2" r="C5">
-        <v>60.0</v>
-      </c>
-      <c s="2" r="D5">
-        <v>23.0</v>
-      </c>
-      <c s="2" r="E5">
-        <v>27.0</v>
-      </c>
-      <c s="2" r="F5">
-        <v>24.0</v>
-      </c>
-      <c s="2" r="G5">
-        <v>60.0</v>
-      </c>
-      <c s="2" r="H5">
-        <v>58.0</v>
-      </c>
-      <c s="2" r="I5">
-        <v>63.0</v>
-      </c>
-      <c s="2" r="J5">
-        <v>72.0</v>
-      </c>
-      <c s="2" r="K5">
-        <v>101.0</v>
-      </c>
-      <c s="2" r="L5">
-        <v>173.0</v>
-      </c>
-      <c s="2" r="M5">
-        <v>182.0</v>
-      </c>
-      <c s="2" r="N5">
-        <v>30.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
       <c t="s" s="2" r="A6">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c s="2" r="B6">
-        <v>129.0</v>
-      </c>
-      <c s="2" r="C6">
-        <v>74.0</v>
-      </c>
-      <c s="2" r="D6">
-        <v>33.0</v>
-      </c>
-      <c s="2" r="E6">
-        <v>22.0</v>
-      </c>
-      <c s="2" r="F6">
-        <v>41.0</v>
-      </c>
-      <c s="2" r="G6">
-        <v>58.0</v>
-      </c>
-      <c s="2" r="H6">
-        <v>67.0</v>
-      </c>
-      <c s="2" r="I6">
-        <v>59.0</v>
-      </c>
-      <c s="2" r="J6">
-        <v>111.0</v>
-      </c>
-      <c s="2" r="K6">
-        <v>122.0</v>
-      </c>
-      <c s="2" r="L6">
-        <v>198.0</v>
-      </c>
-      <c s="2" r="M6">
-        <v>243.0</v>
-      </c>
-      <c s="2" r="N6">
-        <v>47.0</v>
+        <v>157.0</v>
       </c>
     </row>
     <row r="7">
       <c t="s" s="2" r="A7">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c s="2" r="B7">
-        <v>194.0</v>
-      </c>
-      <c s="2" r="C7">
-        <v>121.0</v>
-      </c>
-      <c s="2" r="D7">
-        <v>58.0</v>
-      </c>
-      <c s="2" r="E7">
-        <v>33.0</v>
-      </c>
-      <c s="2" r="F7">
-        <v>32.0</v>
-      </c>
-      <c s="2" r="G7">
-        <v>57.0</v>
-      </c>
-      <c s="2" r="H7">
-        <v>53.0</v>
-      </c>
-      <c s="2" r="I7">
-        <v>51.0</v>
-      </c>
-      <c s="2" r="J7">
-        <v>61.0</v>
-      </c>
-      <c s="2" r="K7">
-        <v>110.0</v>
-      </c>
-      <c s="2" r="L7">
-        <v>207.0</v>
-      </c>
-      <c s="2" r="M7">
-        <v>207.0</v>
-      </c>
-      <c s="2" r="N7">
-        <v>40.0</v>
+        <v>2777.0</v>
       </c>
     </row>
     <row r="8">
       <c t="s" s="2" r="A8">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c s="2" r="B8">
-        <v>165.0</v>
-      </c>
-      <c s="2" r="C8">
-        <v>132.0</v>
-      </c>
-      <c s="2" r="D8">
-        <v>56.0</v>
-      </c>
-      <c s="2" r="E8">
-        <v>24.0</v>
-      </c>
-      <c s="2" r="F8">
-        <v>32.0</v>
-      </c>
-      <c s="2" r="G8">
-        <v>40.0</v>
-      </c>
-      <c s="2" r="H8">
-        <v>36.0</v>
-      </c>
-      <c s="2" r="I8">
-        <v>66.0</v>
-      </c>
-      <c s="2" r="J8">
-        <v>81.0</v>
-      </c>
-      <c s="2" r="K8">
-        <v>113.0</v>
-      </c>
-      <c s="2" r="L8">
-        <v>169.0</v>
-      </c>
-      <c s="2" r="M8">
-        <v>190.0</v>
-      </c>
-      <c s="2" r="N8">
-        <v>47.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="9">
       <c t="s" s="2" r="A9">
-        <v>49</v>
-      </c>
-      <c t="str" s="2" r="B9">
-        <f ref="B9:N9" t="shared" si="1">sum(B2:B8)</f>
-        <v>956</v>
-      </c>
-      <c t="str" s="2" r="C9">
-        <f t="shared" si="1"/>
-        <v>579</v>
-      </c>
-      <c t="str" s="2" r="D9">
-        <f t="shared" si="1"/>
-        <v>274</v>
-      </c>
-      <c t="str" s="2" r="E9">
-        <f t="shared" si="1"/>
-        <v>170</v>
-      </c>
-      <c t="str" s="2" r="F9">
-        <f t="shared" si="1"/>
-        <v>234</v>
-      </c>
-      <c t="str" s="2" r="G9">
-        <f t="shared" si="1"/>
-        <v>375</v>
-      </c>
-      <c t="str" s="2" r="H9">
-        <f t="shared" si="1"/>
-        <v>368</v>
-      </c>
-      <c t="str" s="2" r="I9">
-        <f t="shared" si="1"/>
-        <v>469</v>
-      </c>
-      <c t="str" s="2" r="J9">
-        <f t="shared" si="1"/>
-        <v>557</v>
-      </c>
-      <c t="str" s="2" r="K9">
-        <f t="shared" si="1"/>
-        <v>779</v>
-      </c>
-      <c t="str" s="2" r="L9">
-        <f t="shared" si="1"/>
-        <v>1300</v>
-      </c>
-      <c t="str" s="2" r="M9">
-        <f t="shared" si="1"/>
-        <v>1391</v>
-      </c>
-      <c t="str" s="2" r="N9">
-        <f t="shared" si="1"/>
-        <v>309</v>
+        <v>39</v>
+      </c>
+      <c s="2" r="B9">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c t="s" s="2" r="A10">
+        <v>40</v>
+      </c>
+      <c s="2" r="B10">
+        <v>387.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c t="s" s="2" r="A11">
+        <v>41</v>
+      </c>
+      <c t="str" s="2" r="B11">
+        <f>sum(B2:B10)</f>
+        <v>4463</v>
       </c>
     </row>
   </sheetData>
@@ -1037,7 +761,440 @@
   <sheetData>
     <row r="1">
       <c t="s" s="1" r="A1">
+        <v>42</v>
+      </c>
+      <c t="s" s="1" r="B1">
+        <v>43</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>44</v>
+      </c>
+      <c t="s" s="1" r="D1">
+        <v>45</v>
+      </c>
+      <c t="s" s="1" r="E1">
+        <v>46</v>
+      </c>
+      <c t="s" s="1" r="F1">
+        <v>47</v>
+      </c>
+      <c t="s" s="1" r="G1">
+        <v>48</v>
+      </c>
+      <c t="s" s="1" r="H1">
+        <v>49</v>
+      </c>
+      <c t="s" s="1" r="I1">
         <v>50</v>
+      </c>
+      <c t="s" s="1" r="J1">
+        <v>51</v>
+      </c>
+      <c t="s" s="1" r="K1">
+        <v>52</v>
+      </c>
+      <c t="s" s="1" r="L1">
+        <v>53</v>
+      </c>
+      <c t="s" s="1" r="M1">
+        <v>54</v>
+      </c>
+      <c t="s" s="1" r="N1">
+        <v>55</v>
+      </c>
+      <c s="1" r="O1"/>
+      <c s="1" r="P1"/>
+      <c s="1" r="Q1"/>
+      <c s="1" r="R1"/>
+      <c s="1" r="S1"/>
+      <c s="1" r="T1"/>
+      <c s="1" r="U1"/>
+      <c s="1" r="V1"/>
+      <c s="1" r="W1"/>
+      <c s="1" r="X1"/>
+      <c s="1" r="Y1"/>
+      <c s="1" r="Z1"/>
+    </row>
+    <row r="2">
+      <c t="s" s="2" r="A2">
+        <v>56</v>
+      </c>
+      <c s="2" r="B2">
+        <v>117.0</v>
+      </c>
+      <c s="2" r="C2">
+        <v>68.0</v>
+      </c>
+      <c s="2" r="D2">
+        <v>44.0</v>
+      </c>
+      <c s="2" r="E2">
+        <v>17.0</v>
+      </c>
+      <c s="2" r="F2">
+        <v>40.0</v>
+      </c>
+      <c s="2" r="G2">
+        <v>50.0</v>
+      </c>
+      <c s="2" r="H2">
+        <v>58.0</v>
+      </c>
+      <c s="2" r="I2">
+        <v>87.0</v>
+      </c>
+      <c s="2" r="J2">
+        <v>66.0</v>
+      </c>
+      <c s="2" r="K2">
+        <v>110.0</v>
+      </c>
+      <c s="2" r="L2">
+        <v>180.0</v>
+      </c>
+      <c s="2" r="M2">
+        <v>197.0</v>
+      </c>
+      <c s="2" r="N2">
+        <v>58.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c t="s" s="2" r="A3">
+        <v>57</v>
+      </c>
+      <c s="2" r="B3">
+        <v>107.0</v>
+      </c>
+      <c s="2" r="C3">
+        <v>54.0</v>
+      </c>
+      <c s="2" r="D3">
+        <v>29.0</v>
+      </c>
+      <c s="2" r="E3">
+        <v>24.0</v>
+      </c>
+      <c s="2" r="F3">
+        <v>30.0</v>
+      </c>
+      <c s="2" r="G3">
+        <v>57.0</v>
+      </c>
+      <c s="2" r="H3">
+        <v>43.0</v>
+      </c>
+      <c s="2" r="I3">
+        <v>77.0</v>
+      </c>
+      <c s="2" r="J3">
+        <v>71.0</v>
+      </c>
+      <c s="2" r="K3">
+        <v>109.0</v>
+      </c>
+      <c s="2" r="L3">
+        <v>209.0</v>
+      </c>
+      <c s="2" r="M3">
+        <v>170.0</v>
+      </c>
+      <c s="2" r="N3">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c t="s" s="2" r="A4">
+        <v>58</v>
+      </c>
+      <c s="2" r="B4">
+        <v>116.0</v>
+      </c>
+      <c s="2" r="C4">
+        <v>70.0</v>
+      </c>
+      <c s="2" r="D4">
+        <v>31.0</v>
+      </c>
+      <c s="2" r="E4">
+        <v>23.0</v>
+      </c>
+      <c s="2" r="F4">
+        <v>35.0</v>
+      </c>
+      <c s="2" r="G4">
+        <v>53.0</v>
+      </c>
+      <c s="2" r="H4">
+        <v>53.0</v>
+      </c>
+      <c s="2" r="I4">
+        <v>66.0</v>
+      </c>
+      <c s="2" r="J4">
+        <v>95.0</v>
+      </c>
+      <c s="2" r="K4">
+        <v>114.0</v>
+      </c>
+      <c s="2" r="L4">
+        <v>164.0</v>
+      </c>
+      <c s="2" r="M4">
+        <v>202.0</v>
+      </c>
+      <c s="2" r="N4">
+        <v>43.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c t="s" s="2" r="A5">
+        <v>59</v>
+      </c>
+      <c s="2" r="B5">
+        <v>128.0</v>
+      </c>
+      <c s="2" r="C5">
+        <v>60.0</v>
+      </c>
+      <c s="2" r="D5">
+        <v>23.0</v>
+      </c>
+      <c s="2" r="E5">
+        <v>27.0</v>
+      </c>
+      <c s="2" r="F5">
+        <v>24.0</v>
+      </c>
+      <c s="2" r="G5">
+        <v>60.0</v>
+      </c>
+      <c s="2" r="H5">
+        <v>58.0</v>
+      </c>
+      <c s="2" r="I5">
+        <v>63.0</v>
+      </c>
+      <c s="2" r="J5">
+        <v>72.0</v>
+      </c>
+      <c s="2" r="K5">
+        <v>101.0</v>
+      </c>
+      <c s="2" r="L5">
+        <v>173.0</v>
+      </c>
+      <c s="2" r="M5">
+        <v>182.0</v>
+      </c>
+      <c s="2" r="N5">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c t="s" s="2" r="A6">
+        <v>60</v>
+      </c>
+      <c s="2" r="B6">
+        <v>129.0</v>
+      </c>
+      <c s="2" r="C6">
+        <v>74.0</v>
+      </c>
+      <c s="2" r="D6">
+        <v>33.0</v>
+      </c>
+      <c s="2" r="E6">
+        <v>22.0</v>
+      </c>
+      <c s="2" r="F6">
+        <v>41.0</v>
+      </c>
+      <c s="2" r="G6">
+        <v>58.0</v>
+      </c>
+      <c s="2" r="H6">
+        <v>67.0</v>
+      </c>
+      <c s="2" r="I6">
+        <v>59.0</v>
+      </c>
+      <c s="2" r="J6">
+        <v>111.0</v>
+      </c>
+      <c s="2" r="K6">
+        <v>122.0</v>
+      </c>
+      <c s="2" r="L6">
+        <v>198.0</v>
+      </c>
+      <c s="2" r="M6">
+        <v>243.0</v>
+      </c>
+      <c s="2" r="N6">
+        <v>47.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c t="s" s="2" r="A7">
+        <v>61</v>
+      </c>
+      <c s="2" r="B7">
+        <v>194.0</v>
+      </c>
+      <c s="2" r="C7">
+        <v>121.0</v>
+      </c>
+      <c s="2" r="D7">
+        <v>58.0</v>
+      </c>
+      <c s="2" r="E7">
+        <v>33.0</v>
+      </c>
+      <c s="2" r="F7">
+        <v>32.0</v>
+      </c>
+      <c s="2" r="G7">
+        <v>57.0</v>
+      </c>
+      <c s="2" r="H7">
+        <v>53.0</v>
+      </c>
+      <c s="2" r="I7">
+        <v>51.0</v>
+      </c>
+      <c s="2" r="J7">
+        <v>61.0</v>
+      </c>
+      <c s="2" r="K7">
+        <v>110.0</v>
+      </c>
+      <c s="2" r="L7">
+        <v>207.0</v>
+      </c>
+      <c s="2" r="M7">
+        <v>207.0</v>
+      </c>
+      <c s="2" r="N7">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c t="s" s="2" r="A8">
+        <v>62</v>
+      </c>
+      <c s="2" r="B8">
+        <v>165.0</v>
+      </c>
+      <c s="2" r="C8">
+        <v>132.0</v>
+      </c>
+      <c s="2" r="D8">
+        <v>56.0</v>
+      </c>
+      <c s="2" r="E8">
+        <v>24.0</v>
+      </c>
+      <c s="2" r="F8">
+        <v>32.0</v>
+      </c>
+      <c s="2" r="G8">
+        <v>40.0</v>
+      </c>
+      <c s="2" r="H8">
+        <v>36.0</v>
+      </c>
+      <c s="2" r="I8">
+        <v>66.0</v>
+      </c>
+      <c s="2" r="J8">
+        <v>81.0</v>
+      </c>
+      <c s="2" r="K8">
+        <v>113.0</v>
+      </c>
+      <c s="2" r="L8">
+        <v>169.0</v>
+      </c>
+      <c s="2" r="M8">
+        <v>190.0</v>
+      </c>
+      <c s="2" r="N8">
+        <v>47.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c t="s" s="2" r="A9">
+        <v>63</v>
+      </c>
+      <c t="str" s="2" r="B9">
+        <f ref="B9:N9" t="shared" si="1">sum(B2:B8)</f>
+        <v>956</v>
+      </c>
+      <c t="str" s="2" r="C9">
+        <f t="shared" si="1"/>
+        <v>579</v>
+      </c>
+      <c t="str" s="2" r="D9">
+        <f t="shared" si="1"/>
+        <v>274</v>
+      </c>
+      <c t="str" s="2" r="E9">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+      <c t="str" s="2" r="F9">
+        <f t="shared" si="1"/>
+        <v>234</v>
+      </c>
+      <c t="str" s="2" r="G9">
+        <f t="shared" si="1"/>
+        <v>375</v>
+      </c>
+      <c t="str" s="2" r="H9">
+        <f t="shared" si="1"/>
+        <v>368</v>
+      </c>
+      <c t="str" s="2" r="I9">
+        <f t="shared" si="1"/>
+        <v>469</v>
+      </c>
+      <c t="str" s="2" r="J9">
+        <f t="shared" si="1"/>
+        <v>557</v>
+      </c>
+      <c t="str" s="2" r="K9">
+        <f t="shared" si="1"/>
+        <v>779</v>
+      </c>
+      <c t="str" s="2" r="L9">
+        <f t="shared" si="1"/>
+        <v>1300</v>
+      </c>
+      <c t="str" s="2" r="M9">
+        <f t="shared" si="1"/>
+        <v>1391</v>
+      </c>
+      <c t="str" s="2" r="N9">
+        <f t="shared" si="1"/>
+        <v>309</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c t="s" s="1" r="A1">
+        <v>64</v>
       </c>
       <c s="1" r="H1"/>
       <c s="1" r="I1"/>
@@ -1062,38 +1219,38 @@
     </row>
     <row r="2">
       <c t="s" r="A2">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c t="s" s="1" r="B2">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c t="s" s="1" r="E2">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
       <c t="s" s="1" r="B3">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c t="s" s="1" r="C3">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c t="s" s="1" r="D3">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c t="s" s="1" r="E3">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c t="s" s="1" r="F3">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c t="s" s="1" r="G3">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">
       <c t="s" s="1" r="A4">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c s="3" r="B4">
         <v>424.0</v>
@@ -1116,7 +1273,7 @@
     </row>
     <row r="5">
       <c t="s" s="1" r="A5">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c s="3" r="B5">
         <v>336.0</v>
@@ -1139,7 +1296,7 @@
     </row>
     <row r="6">
       <c t="s" s="1" r="A6">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c s="3" r="B6">
         <v>0.0</v>
@@ -1162,7 +1319,7 @@
     </row>
     <row r="7">
       <c t="s" s="1" r="A7">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c s="3" r="B7">
         <v>11.0</v>
@@ -1185,7 +1342,7 @@
     </row>
     <row r="8">
       <c t="s" s="1" r="A8">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c s="3" r="B8">
         <v>8.0</v>
@@ -1208,7 +1365,7 @@
     </row>
     <row r="9">
       <c t="s" s="1" r="A9">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c t="str" s="3" r="B9">
         <f ref="B9:G9" t="shared" si="1">sum(B4:B8)</f>
@@ -1819,7 +1976,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1828,7 +1985,7 @@
   <sheetData>
     <row r="1">
       <c t="s" s="4" r="A1">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c s="1" r="H1"/>
       <c s="1" r="I1"/>
@@ -1853,38 +2010,38 @@
     </row>
     <row r="2">
       <c t="s" r="A2">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c t="s" s="1" r="B2">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c t="s" s="1" r="E2">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
       <c t="s" s="1" r="B3">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c t="s" s="1" r="C3">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c t="s" s="1" r="D3">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c t="s" s="1" r="E3">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c t="s" s="1" r="F3">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c t="s" s="1" r="G3">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4">
       <c t="s" s="1" r="A4">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c s="3" r="B4">
         <v>481.0</v>
@@ -1907,7 +2064,7 @@
     </row>
     <row r="5">
       <c t="s" s="1" r="A5">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c s="3" r="B5">
         <v>3354.0</v>
@@ -1930,7 +2087,7 @@
     </row>
     <row r="6">
       <c t="s" s="1" r="A6">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c s="3" r="B6">
         <v>0.0</v>
@@ -1953,7 +2110,7 @@
     </row>
     <row r="7">
       <c t="s" s="1" r="A7">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c s="3" r="B7">
         <v>17.0</v>
@@ -1976,7 +2133,7 @@
     </row>
     <row r="8">
       <c t="s" s="1" r="A8">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c s="3" r="B8">
         <v>124.0</v>
@@ -1999,7 +2156,7 @@
     </row>
     <row r="9">
       <c t="s" s="1" r="A9">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c t="str" s="3" r="B9">
         <f ref="B9:G9" t="shared" si="1">sum(B4:B8)</f>
